--- a/data/financial_statements/sofp/POOL.xlsx
+++ b/data/financial_statements/sofp/POOL.xlsx
@@ -14,9 +14,126 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2019-06-30</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2018-09-30</t>
+  </si>
+  <si>
+    <t>2018-06-30</t>
+  </si>
+  <si>
+    <t>2018-03-31</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>2017-09-30</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>2016-12-31</t>
+  </si>
+  <si>
+    <t>2016-09-30</t>
+  </si>
+  <si>
+    <t>2016-06-30</t>
+  </si>
+  <si>
+    <t>2016-03-31</t>
+  </si>
+  <si>
+    <t>2015-12-31</t>
+  </si>
+  <si>
+    <t>2015-09-30</t>
+  </si>
+  <si>
+    <t>2015-06-30</t>
+  </si>
+  <si>
+    <t>2015-03-31</t>
+  </si>
+  <si>
+    <t>2014-12-31</t>
+  </si>
+  <si>
+    <t>2014-09-30</t>
+  </si>
+  <si>
+    <t>2014-06-30</t>
+  </si>
+  <si>
+    <t>2014-03-31</t>
+  </si>
+  <si>
+    <t>2013-12-31</t>
+  </si>
+  <si>
+    <t>2013-09-30</t>
+  </si>
+  <si>
+    <t>2013-06-30</t>
+  </si>
+  <si>
+    <t>2013-03-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Cash and Short Term Investments</t>
@@ -122,9 +239,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -177,12 +291,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -487,144 +598,144 @@
   <sheetData>
     <row r="1" spans="1:40">
       <c r="A1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>44834</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44651</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44377</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44104</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44012</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43921</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43830</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43738</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43646</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43555</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43465</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43373</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43281</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43190</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43100</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43008</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42916</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42825</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42735</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42643</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42551</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42460</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42369</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42277</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42185</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42094</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42004</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41912</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41820</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41729</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41639</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41547</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41455</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>41364</v>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:40">
-      <c r="A2" t="s">
-        <v>1</v>
+      <c r="A2" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="B2">
-        <v>49000000</v>
+        <v>49079000</v>
       </c>
       <c r="C2">
-        <v>91000000</v>
+        <v>91481000</v>
       </c>
       <c r="D2">
-        <v>35000000</v>
+        <v>35365000</v>
       </c>
       <c r="E2">
-        <v>24000000</v>
+        <v>24321000</v>
       </c>
       <c r="F2">
-        <v>83000000</v>
+        <v>83475000</v>
       </c>
       <c r="G2">
         <v>58465000</v>
@@ -730,23 +841,23 @@
       </c>
     </row>
     <row r="3" spans="1:40">
-      <c r="A3" t="s">
-        <v>2</v>
+      <c r="A3" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B3">
-        <v>550000000</v>
+        <v>549796000</v>
       </c>
       <c r="C3">
-        <v>757000000</v>
+        <v>756585000</v>
       </c>
       <c r="D3">
-        <v>680000000</v>
+        <v>679927000</v>
       </c>
       <c r="E3">
-        <v>377000000</v>
+        <v>376571000</v>
       </c>
       <c r="F3">
-        <v>476000000</v>
+        <v>476150000</v>
       </c>
       <c r="G3">
         <v>585566000</v>
@@ -852,23 +963,23 @@
       </c>
     </row>
     <row r="4" spans="1:40">
-      <c r="A4" t="s">
-        <v>3</v>
+      <c r="A4" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B4">
-        <v>1540000000</v>
+        <v>1539572000</v>
       </c>
       <c r="C4">
-        <v>1579000000</v>
+        <v>1579101000</v>
       </c>
       <c r="D4">
-        <v>1641000000</v>
+        <v>1641155000</v>
       </c>
       <c r="E4">
-        <v>1339000000</v>
+        <v>1339100000</v>
       </c>
       <c r="F4">
-        <v>1043000000</v>
+        <v>1043407000</v>
       </c>
       <c r="G4">
         <v>894654000</v>
@@ -974,8 +1085,8 @@
       </c>
     </row>
     <row r="5" spans="1:40">
-      <c r="A5" t="s">
-        <v>4</v>
+      <c r="A5" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B5">
         <v>61000000</v>
@@ -1015,23 +1126,23 @@
       </c>
     </row>
     <row r="6" spans="1:40">
-      <c r="A6" t="s">
-        <v>5</v>
+      <c r="A6" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B6">
-        <v>2199000000</v>
+        <v>2199479000</v>
       </c>
       <c r="C6">
-        <v>2470000000</v>
+        <v>2470484000</v>
       </c>
       <c r="D6">
-        <v>2399000000</v>
+        <v>2398757000</v>
       </c>
       <c r="E6">
-        <v>1769000000</v>
+        <v>1769085000</v>
       </c>
       <c r="F6">
-        <v>1626000000</v>
+        <v>1626400000</v>
       </c>
       <c r="G6">
         <v>1557401000</v>
@@ -1137,23 +1248,23 @@
       </c>
     </row>
     <row r="7" spans="1:40">
-      <c r="A7" t="s">
-        <v>6</v>
+      <c r="A7" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B7">
-        <v>440000000</v>
+        <v>184387000</v>
       </c>
       <c r="C7">
-        <v>443000000</v>
+        <v>183480000</v>
       </c>
       <c r="D7">
-        <v>441000000</v>
+        <v>180504000</v>
       </c>
       <c r="E7">
-        <v>421000000</v>
+        <v>179008000</v>
       </c>
       <c r="F7">
-        <v>332000000</v>
+        <v>111339000</v>
       </c>
       <c r="G7">
         <v>111661000</v>
@@ -1259,23 +1370,23 @@
       </c>
     </row>
     <row r="8" spans="1:40">
-      <c r="A8" t="s">
-        <v>7</v>
+      <c r="A8" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B8">
-        <v>1000000</v>
+        <v>1190000</v>
       </c>
       <c r="C8">
-        <v>1000000</v>
+        <v>1179000</v>
       </c>
       <c r="D8">
-        <v>1000000</v>
+        <v>1184000</v>
       </c>
       <c r="E8">
-        <v>1000000</v>
+        <v>1231000</v>
       </c>
       <c r="F8">
-        <v>1000000</v>
+        <v>1242000</v>
       </c>
       <c r="G8">
         <v>1293000</v>
@@ -1381,23 +1492,23 @@
       </c>
     </row>
     <row r="9" spans="1:40">
-      <c r="A9" t="s">
-        <v>8</v>
+      <c r="A9" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="B9">
-        <v>999000000</v>
+        <v>999175000</v>
       </c>
       <c r="C9">
-        <v>1002000000</v>
+        <v>1002347000</v>
       </c>
       <c r="D9">
-        <v>999000000</v>
+        <v>999198000</v>
       </c>
       <c r="E9">
-        <v>1001000000</v>
+        <v>1001178000</v>
       </c>
       <c r="F9">
-        <v>293000000</v>
+        <v>293367000</v>
       </c>
       <c r="G9">
         <v>295634000</v>
@@ -1503,23 +1614,23 @@
       </c>
     </row>
     <row r="10" spans="1:40">
-      <c r="A10" t="s">
-        <v>9</v>
+      <c r="A10" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B10">
-        <v>48000000</v>
+        <v>48213000</v>
       </c>
       <c r="C10">
-        <v>45000000</v>
+        <v>45044000</v>
       </c>
       <c r="D10">
-        <v>42000000</v>
+        <v>42213000</v>
       </c>
       <c r="E10">
-        <v>38000000</v>
+        <v>37967000</v>
       </c>
       <c r="F10">
-        <v>29000000</v>
+        <v>28878000</v>
       </c>
       <c r="G10">
         <v>26978000</v>
@@ -1625,8 +1736,8 @@
       </c>
     </row>
     <row r="11" spans="1:40">
-      <c r="A11" t="s">
-        <v>10</v>
+      <c r="A11" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B11">
         <v>1488576000</v>
@@ -1747,23 +1858,23 @@
       </c>
     </row>
     <row r="12" spans="1:40">
-      <c r="A12" t="s">
-        <v>11</v>
+      <c r="A12" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B12">
-        <v>3688000000</v>
+        <v>3688055000</v>
       </c>
       <c r="C12">
-        <v>3962000000</v>
+        <v>3962105000</v>
       </c>
       <c r="D12">
-        <v>3882000000</v>
+        <v>3882141000</v>
       </c>
       <c r="E12">
-        <v>3230000000</v>
+        <v>3230131000</v>
       </c>
       <c r="F12">
-        <v>2282000000</v>
+        <v>2282233000</v>
       </c>
       <c r="G12">
         <v>2214035000</v>
@@ -1869,8 +1980,8 @@
       </c>
     </row>
     <row r="13" spans="1:40">
-      <c r="A13" t="s">
-        <v>12</v>
+      <c r="A13" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B13">
         <v>12208000</v>
@@ -1916,23 +2027,23 @@
       </c>
     </row>
     <row r="14" spans="1:40">
-      <c r="A14" t="s">
-        <v>13</v>
+      <c r="A14" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="B14">
-        <v>442000000</v>
+        <v>442226000</v>
       </c>
       <c r="C14">
-        <v>604000000</v>
+        <v>604225000</v>
       </c>
       <c r="D14">
-        <v>686000000</v>
+        <v>685946000</v>
       </c>
       <c r="E14">
-        <v>399000000</v>
+        <v>398697000</v>
       </c>
       <c r="F14">
-        <v>414000000</v>
+        <v>414156000</v>
       </c>
       <c r="G14">
         <v>439453000</v>
@@ -2038,8 +2149,8 @@
       </c>
     </row>
     <row r="15" spans="1:40">
-      <c r="A15" t="s">
-        <v>14</v>
+      <c r="A15" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="B15">
         <v>210448000</v>
@@ -2160,8 +2271,8 @@
       </c>
     </row>
     <row r="16" spans="1:40">
-      <c r="A16" t="s">
-        <v>15</v>
+      <c r="A16" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="B16">
         <v>85000000</v>
@@ -2170,7 +2281,7 @@
         <v>91000000</v>
       </c>
       <c r="D16">
-        <v>93000000</v>
+        <v>21265000</v>
       </c>
       <c r="E16">
         <v>81000000</v>
@@ -2273,8 +2384,8 @@
       </c>
     </row>
     <row r="17" spans="1:40">
-      <c r="A17" t="s">
-        <v>16</v>
+      <c r="A17" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="B17">
         <v>210000000</v>
@@ -2314,23 +2425,23 @@
       </c>
     </row>
     <row r="18" spans="1:40">
-      <c r="A18" t="s">
-        <v>17</v>
+      <c r="A18" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="B18">
-        <v>737000000</v>
+        <v>737260000</v>
       </c>
       <c r="C18">
-        <v>891000000</v>
+        <v>891035000</v>
       </c>
       <c r="D18">
-        <v>958000000</v>
+        <v>958448000</v>
       </c>
       <c r="E18">
-        <v>744000000</v>
+        <v>744416000</v>
       </c>
       <c r="F18">
-        <v>722000000</v>
+        <v>722136000</v>
       </c>
       <c r="G18">
         <v>697734000</v>
@@ -2436,23 +2547,23 @@
       </c>
     </row>
     <row r="19" spans="1:40">
-      <c r="A19" t="s">
-        <v>18</v>
+      <c r="A19" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="B19">
-        <v>1688000000</v>
+        <v>1500337000</v>
       </c>
       <c r="C19">
-        <v>1768000000</v>
+        <v>1575667000</v>
       </c>
       <c r="D19">
-        <v>1676000000</v>
+        <v>1483808000</v>
       </c>
       <c r="E19">
-        <v>1347000000</v>
+        <v>1171578000</v>
       </c>
       <c r="F19">
-        <v>510000000</v>
+        <v>352075000</v>
       </c>
       <c r="G19">
         <v>413058000</v>
@@ -2558,23 +2669,23 @@
       </c>
     </row>
     <row r="20" spans="1:40">
-      <c r="A20" t="s">
-        <v>19</v>
+      <c r="A20" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="B20">
-        <v>45000000</v>
+        <v>45247000</v>
       </c>
       <c r="C20">
-        <v>42000000</v>
+        <v>42380000</v>
       </c>
       <c r="D20">
-        <v>41000000</v>
+        <v>40944000</v>
       </c>
       <c r="E20">
-        <v>36000000</v>
+        <v>35840000</v>
       </c>
       <c r="F20">
-        <v>30000000</v>
+        <v>30275000</v>
       </c>
       <c r="G20">
         <v>30440000</v>
@@ -2680,8 +2791,8 @@
       </c>
     </row>
     <row r="21" spans="1:40">
-      <c r="A21" t="s">
-        <v>20</v>
+      <c r="A21" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="X21">
         <v>2424000</v>
@@ -2718,23 +2829,23 @@
       </c>
     </row>
     <row r="22" spans="1:40">
-      <c r="A22" t="s">
-        <v>21</v>
+      <c r="A22" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="B22">
-        <v>27000000</v>
+        <v>26744000</v>
       </c>
       <c r="C22">
-        <v>32000000</v>
+        <v>32109000</v>
       </c>
       <c r="D22">
-        <v>33000000</v>
+        <v>32940000</v>
       </c>
       <c r="E22">
-        <v>32000000</v>
+        <v>31545000</v>
       </c>
       <c r="F22">
-        <v>34000000</v>
+        <v>34176000</v>
       </c>
       <c r="G22">
         <v>38079000</v>
@@ -2840,8 +2951,8 @@
       </c>
     </row>
     <row r="23" spans="1:40">
-      <c r="A23" t="s">
-        <v>22</v>
+      <c r="A23" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B23">
         <v>1759917000</v>
@@ -2962,23 +3073,23 @@
       </c>
     </row>
     <row r="24" spans="1:40">
-      <c r="A24" t="s">
-        <v>23</v>
+      <c r="A24" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="B24">
-        <v>2497000000</v>
+        <v>2497177000</v>
       </c>
       <c r="C24">
-        <v>2733000000</v>
+        <v>2733047000</v>
       </c>
       <c r="D24">
-        <v>2708000000</v>
+        <v>2707863000</v>
       </c>
       <c r="E24">
-        <v>2159000000</v>
+        <v>2158738000</v>
       </c>
       <c r="F24">
-        <v>1297000000</v>
+        <v>1297021000</v>
       </c>
       <c r="G24">
         <v>1339287000</v>
@@ -3084,8 +3195,8 @@
       </c>
     </row>
     <row r="25" spans="1:40">
-      <c r="A25" t="s">
-        <v>24</v>
+      <c r="A25" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="B25">
         <v>570855000</v>
@@ -3206,23 +3317,23 @@
       </c>
     </row>
     <row r="26" spans="1:40">
-      <c r="A26" t="s">
-        <v>25</v>
+      <c r="A26" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="B26">
-        <v>0</v>
+        <v>39000</v>
       </c>
       <c r="C26">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="D26">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="F26">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="G26">
         <v>40000</v>
@@ -3328,23 +3439,23 @@
       </c>
     </row>
     <row r="27" spans="1:40">
-      <c r="A27" t="s">
-        <v>26</v>
+      <c r="A27" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="B27">
-        <v>621000000</v>
+        <v>620692000</v>
       </c>
       <c r="C27">
-        <v>663000000</v>
+        <v>662709000</v>
       </c>
       <c r="D27">
-        <v>612000000</v>
+        <v>611583000</v>
       </c>
       <c r="E27">
-        <v>527000000</v>
+        <v>526874000</v>
       </c>
       <c r="F27">
-        <v>451000000</v>
+        <v>451401000</v>
       </c>
       <c r="G27">
         <v>346667000</v>
@@ -3450,23 +3561,23 @@
       </c>
     </row>
     <row r="28" spans="1:40">
-      <c r="A28" t="s">
-        <v>27</v>
+      <c r="A28" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="B28">
-        <v>1191000000</v>
+        <v>1190878000</v>
       </c>
       <c r="C28">
-        <v>1229000000</v>
+        <v>1229058000</v>
       </c>
       <c r="D28">
-        <v>1174000000</v>
+        <v>1174278000</v>
       </c>
       <c r="E28">
-        <v>1071000000</v>
+        <v>1071393000</v>
       </c>
       <c r="F28">
-        <v>985000000</v>
+        <v>985212000</v>
       </c>
       <c r="G28">
         <v>874748000</v>
@@ -3572,23 +3683,23 @@
       </c>
     </row>
     <row r="29" spans="1:40">
-      <c r="A29" t="s">
-        <v>28</v>
+      <c r="A29" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="B29">
-        <v>1191000000</v>
+        <v>1190878000</v>
       </c>
       <c r="C29">
-        <v>1229000000</v>
+        <v>1229058000</v>
       </c>
       <c r="D29">
-        <v>1174000000</v>
+        <v>1174278000</v>
       </c>
       <c r="E29">
-        <v>1071000000</v>
+        <v>1071393000</v>
       </c>
       <c r="F29">
-        <v>985000000</v>
+        <v>985212000</v>
       </c>
       <c r="G29">
         <v>874748000</v>
@@ -3694,8 +3805,8 @@
       </c>
     </row>
     <row r="30" spans="1:40">
-      <c r="A30" t="s">
-        <v>29</v>
+      <c r="A30" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="B30">
         <v>3688055000</v>
@@ -3816,8 +3927,8 @@
       </c>
     </row>
     <row r="31" spans="1:40">
-      <c r="A31" t="s">
-        <v>30</v>
+      <c r="A31" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="B31">
         <v>39054000</v>
@@ -3938,8 +4049,8 @@
       </c>
     </row>
     <row r="32" spans="1:40">
-      <c r="A32" t="s">
-        <v>31</v>
+      <c r="A32" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="B32">
         <v>191702900</v>
@@ -4060,23 +4171,23 @@
       </c>
     </row>
     <row r="33" spans="1:40">
-      <c r="A33" t="s">
-        <v>32</v>
+      <c r="A33" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="B33">
-        <v>1724000000</v>
+        <v>1536258000</v>
       </c>
       <c r="C33">
-        <v>1768000000</v>
+        <v>1575186000</v>
       </c>
       <c r="D33">
-        <v>1734000000</v>
+        <v>1469708000</v>
       </c>
       <c r="E33">
-        <v>1404000000</v>
+        <v>1228257000</v>
       </c>
       <c r="F33">
-        <v>503000000</v>
+        <v>344600000</v>
       </c>
       <c r="G33">
         <v>428593000</v>
@@ -4182,23 +4293,23 @@
       </c>
     </row>
     <row r="34" spans="1:40">
-      <c r="A34" t="s">
-        <v>33</v>
+      <c r="A34" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="B34">
-        <v>1773000000</v>
+        <v>1585337000</v>
       </c>
       <c r="C34">
-        <v>1859000000</v>
+        <v>1666667000</v>
       </c>
       <c r="D34">
-        <v>1769000000</v>
+        <v>1505073000</v>
       </c>
       <c r="E34">
-        <v>1428000000</v>
+        <v>1252578000</v>
       </c>
       <c r="F34">
-        <v>586000000</v>
+        <v>428075000</v>
       </c>
       <c r="G34">
         <v>487058000</v>
